--- a/stability_analysis/data/cases/IEEE_9_headers.xlsx
+++ b/stability_analysis/data/cases/IEEE_9_headers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original\stability_analysis\stability_analysis\data\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\hp2c-dt\stability_analysis\stability_analysis\data\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0667D2FC-3759-42F8-BFC8-AB6EE5B53DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429FAC13-822E-4080-BB7D-9CFAB5BF08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8520" tabRatio="922" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen" sheetId="20" r:id="rId1"/>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4260,7 +4260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CFBF60-98A8-4115-AF57-8C42FECC4BBB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -4506,7 +4506,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4547,273 +4547,49 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2" s="12"/>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3" s="12"/>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4" s="12"/>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11">
-        <v>38</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="12"/>
+      <c r="E5"/>
+      <c r="F5" s="12"/>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>59</v>
-      </c>
-      <c r="C6" s="11">
-        <v>63</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
+      <c r="D6" s="12"/>
+      <c r="E6"/>
+      <c r="F6" s="12"/>
+      <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>61</v>
-      </c>
-      <c r="C7" s="11">
-        <v>64</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
+      <c r="E7"/>
+      <c r="F7" s="12"/>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11">
-        <v>66</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8" s="12"/>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>68</v>
-      </c>
-      <c r="C9" s="11">
-        <v>69</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
+      <c r="E9"/>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11">
-        <v>81</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
+      <c r="E10"/>
+      <c r="I10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
